--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_95_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_95_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.676144568246395, 5.218556118469889]</t>
+          <t>[4.678333891754792, 5.216366794961492]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.002373354824512397, 0.2775703238556355]</t>
+          <t>[0.0024886463408915205, 0.2774550323392564]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.04633591135722526</v>
+        <v>0.04616092077297562</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04633591135722526</v>
+        <v>0.04616092077297562</v>
       </c>
       <c r="W2" t="n">
         <v>3.028428428428466</v>
